--- a/results.xlsx
+++ b/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>adult income</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>84.93 (0.0026)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>84.96 (0.0027)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.90 (0.0028)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.90 (0.0028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>titanic</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>80.88 (0.0301)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>80.67 (0.0295)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.18 (0.0331)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.05 (0.0305)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>credit_card_clean</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>82.07 (0.0040)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>82.02 (0.0041)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>77.89 (0.0041)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.93 (0.0041)</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.95 (0.0039)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>student dropout</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>74.91 (0.0078)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>74.99 (0.0070)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.99 (0.0120)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.12 (0.0115)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>student performance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>92.56 (0.0066)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>92.48 (0.0068)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.73 (0.0085)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.73 (0.0085)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>gait</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>43.16 (0.0023)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43.16 (0.0023)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.97 (0.0023)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>42.96 (0.0024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>musae</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>84.21 (0.0035)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>84.29 (0.0027)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.09 (0.0042)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.15 (0.0040)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>internet ads</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>93.74 (0.0067)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>93.71 (0.0059)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>93.73 (0.0070)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63 (0.0059)</t>
         </is>
       </c>
     </row>
